--- a/lib/btap/measures/UtilityTariffs/resources/utility_gas_tariffs.xlsx
+++ b/lib/btap/measures/UtilityTariffs/resources/utility_gas_tariffs.xlsx
@@ -81,16 +81,16 @@
     <t>Energy Charges Block 4 Limit (MJ)</t>
   </si>
   <si>
-    <t>Demand Charges Block 1 Limit (MJ)</t>
-  </si>
-  <si>
-    <t>Demand Charges Block 2 Limit (MJ)</t>
-  </si>
-  <si>
-    <t>Demand Charges Block 3 Limit (MJ)</t>
-  </si>
-  <si>
-    <t>Demand Charges Block 4 Limit (MJ)</t>
+    <t>Demand Charges Block 1 Limit (MW)</t>
+  </si>
+  <si>
+    <t>Demand Charges Block 2 Limit (MW)</t>
+  </si>
+  <si>
+    <t>Demand Charges Block 3 Limit (MW)</t>
+  </si>
+  <si>
+    <t>Demand Charges Block 4 Limit (MW)</t>
   </si>
 </sst>
 </file>
@@ -431,9 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/lib/btap/measures/UtilityTariffs/resources/utility_gas_tariffs.xlsx
+++ b/lib/btap/measures/UtilityTariffs/resources/utility_gas_tariffs.xlsx
@@ -27,70 +27,70 @@
     <t>Province</t>
   </si>
   <si>
-    <t>Monthly Charge ($)</t>
-  </si>
-  <si>
     <t>Montreal</t>
   </si>
   <si>
     <t>Quebec</t>
   </si>
   <si>
-    <t>Energy Charges Block 2 Rate ($)</t>
-  </si>
-  <si>
-    <t>Energy Charges Block 1 Rate ($)</t>
-  </si>
-  <si>
-    <t>Energy Charges Block 3 Rate ($)</t>
-  </si>
-  <si>
-    <t>Energy Charges Block 4 Rate ($)</t>
-  </si>
-  <si>
-    <t>Energy Charges Block 5 Rate ($)</t>
-  </si>
-  <si>
-    <t>Demand Charges Block 1 Rate ($)</t>
-  </si>
-  <si>
-    <t>Demand Charges Block 2 Rate ($)</t>
-  </si>
-  <si>
-    <t>Demand Charges Block 3 Rate ($)</t>
-  </si>
-  <si>
-    <t>Demand Charges Block 4 Rate ($)</t>
-  </si>
-  <si>
-    <t>Demand Charges Block 5 Rate ($)</t>
-  </si>
-  <si>
     <t>GasMetro</t>
   </si>
   <si>
-    <t>Energy Charges Block 1 Limit (MJ)</t>
-  </si>
-  <si>
-    <t>Energy Charges Block 2 Limit (MJ)</t>
-  </si>
-  <si>
-    <t>Energy Charges Block 3 Limit (MJ)</t>
-  </si>
-  <si>
-    <t>Energy Charges Block 4 Limit (MJ)</t>
-  </si>
-  <si>
-    <t>Demand Charges Block 1 Limit (MW)</t>
-  </si>
-  <si>
-    <t>Demand Charges Block 2 Limit (MW)</t>
-  </si>
-  <si>
-    <t>Demand Charges Block 3 Limit (MW)</t>
-  </si>
-  <si>
-    <t>Demand Charges Block 4 Limit (MW)</t>
+    <t>Monthly_Charge_($)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_1_Rate_($)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_2_Rate_($)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_3_Rate_($)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_4_Rate_($)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_5_Rate_($)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_1_Rate_($)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_2_Rate_($)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_3_Rate_($)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_4_Rate_($)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_5_Rate_($)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_1_Limit_(MJ)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_2_Limit_(MJ)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_3_Limit_(MJ)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_4_Limit_(MJ)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_1_Limit_(MJ_per_hr)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_2_Limit_(MJ_per_hr)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_3_Limit_(MJ_per_hr)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_4_Limit_(MJ_per_hr)</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -446,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -458,60 +460,60 @@
         <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" t="s">
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T1" t="s">
         <v>24</v>
       </c>
       <c r="U1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>31.58</v>
@@ -573,6 +575,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/lib/btap/measures/UtilityTariffs/resources/utility_gas_tariffs.xlsx
+++ b/lib/btap/measures/UtilityTariffs/resources/utility_gas_tariffs.xlsx
@@ -27,70 +27,70 @@
     <t>Province</t>
   </si>
   <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>GasMetro</t>
+  </si>
+  <si>
+    <t>Monthly_Charge_($)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_1_Rate_($)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_2_Rate_($)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_3_Rate_($)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_4_Rate_($)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_5_Rate_($)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_1_Rate_($)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_2_Rate_($)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_3_Rate_($)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_4_Rate_($)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_5_Rate_($)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_1_Limit_(MJ)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_2_Limit_(MJ)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_3_Limit_(MJ)</t>
+  </si>
+  <si>
+    <t>Energy_Charges_Block_4_Limit_(MJ)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_1_Limit_(MJ_per_hr)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_2_Limit_(MJ_per_hr)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_3_Limit_(MJ_per_hr)</t>
+  </si>
+  <si>
+    <t>Demand_Charges_Block_4_Limit_(MJ_per_hr)</t>
+  </si>
+  <si>
     <t>Montreal</t>
-  </si>
-  <si>
-    <t>Quebec</t>
-  </si>
-  <si>
-    <t>GasMetro</t>
-  </si>
-  <si>
-    <t>Monthly_Charge_($)</t>
-  </si>
-  <si>
-    <t>Energy_Charges_Block_1_Rate_($)</t>
-  </si>
-  <si>
-    <t>Energy_Charges_Block_2_Rate_($)</t>
-  </si>
-  <si>
-    <t>Energy_Charges_Block_3_Rate_($)</t>
-  </si>
-  <si>
-    <t>Energy_Charges_Block_4_Rate_($)</t>
-  </si>
-  <si>
-    <t>Energy_Charges_Block_5_Rate_($)</t>
-  </si>
-  <si>
-    <t>Demand_Charges_Block_1_Rate_($)</t>
-  </si>
-  <si>
-    <t>Demand_Charges_Block_2_Rate_($)</t>
-  </si>
-  <si>
-    <t>Demand_Charges_Block_3_Rate_($)</t>
-  </si>
-  <si>
-    <t>Demand_Charges_Block_4_Rate_($)</t>
-  </si>
-  <si>
-    <t>Demand_Charges_Block_5_Rate_($)</t>
-  </si>
-  <si>
-    <t>Energy_Charges_Block_1_Limit_(MJ)</t>
-  </si>
-  <si>
-    <t>Energy_Charges_Block_2_Limit_(MJ)</t>
-  </si>
-  <si>
-    <t>Energy_Charges_Block_3_Limit_(MJ)</t>
-  </si>
-  <si>
-    <t>Energy_Charges_Block_4_Limit_(MJ)</t>
-  </si>
-  <si>
-    <t>Demand_Charges_Block_1_Limit_(MJ_per_hr)</t>
-  </si>
-  <si>
-    <t>Demand_Charges_Block_2_Limit_(MJ_per_hr)</t>
-  </si>
-  <si>
-    <t>Demand_Charges_Block_3_Limit_(MJ_per_hr)</t>
-  </si>
-  <si>
-    <t>Demand_Charges_Block_4_Limit_(MJ_per_hr)</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,72 +448,72 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
-      </c>
-      <c r="V1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2">
         <v>31.58</v>

--- a/lib/btap/measures/UtilityTariffs/resources/utility_gas_tariffs.xlsx
+++ b/lib/btap/measures/UtilityTariffs/resources/utility_gas_tariffs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12840"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="19440" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
   <si>
     <t>Utility</t>
   </si>
@@ -90,7 +90,214 @@
     <t>Demand_Charges_Block_4_Limit_(MJ_per_hr)</t>
   </si>
   <si>
-    <t>Montreal</t>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>EnbridgeNB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enbridge </t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>ManitobaHydro</t>
+  </si>
+  <si>
+    <t>SaskEnergy</t>
+  </si>
+  <si>
+    <t>ATCO</t>
+  </si>
+  <si>
+    <t>FortisBC</t>
+  </si>
+  <si>
+    <t>HeritageGas</t>
+  </si>
+  <si>
+    <t>Nova Scotia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Montreal Int'l_PQ_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  St Hubert_PQ_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Roberval_PQ_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sherbrooke_PQ_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Quebec City_PQ_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Riviere Du Loup_PQ_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Baie Comeau_PQ_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bagotville_PQ_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Montreal Jean Brebeuf_PQ_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ste Agathe Des Monts_PQ_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Montreal Mirabel_PQ_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Saint John_NB_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Fredericton_NB_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Miramichi_NB_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Greenwood_NS_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Shearwater_NS_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ottawa Int'l_ON_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Trenton_ON_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  North Bay_ON_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kingston_ON_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Toronto Int'l_ON_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Timmins_ON_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mount Forest_ON_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Muskoka_ON_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Windsor_ON_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  London_ON_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Simcoe_ON_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Thunder Bay_ON_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sault Ste Marie_ON_CAN</t>
+  </si>
+  <si>
+    <t>Manitboa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Winnipeg Int'l_MB_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Brandon_MB_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Regina_SK_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  North Battleford_SK_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Estevan_SK_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Saskatoon_SK_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Swift Current_SK_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Calgary Int'l_AB_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Medicine Hat_AB_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Lethbridge_AB_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Grand Prairie_AB_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Fort McMurray_AB_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Edmonton Stony Plain_AB_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Abbotsford_BC_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kamloops_BC_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Vancouver Int'l_BC_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cranbrook_BC_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Summerland_BC_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Victoria Int'l_BC_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sandspit_BC_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Port Hardy_BC_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Comox_BC_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Prince Rupert_BC_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Fort St John_BC_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Prince George_BC_CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Smithers_BC_CAN</t>
   </si>
 </sst>
 </file>
@@ -429,13 +636,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -510,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -522,28 +736,28 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1.0154E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>1.0154E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2">
-        <v>1.0154E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="K2">
         <v>4</v>
       </c>
       <c r="L2">
-        <v>1.0154E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="M2">
-        <v>1.0154E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -570,6 +784,3678 @@
         <v>0</v>
       </c>
       <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>31.58</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="M3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>31.58</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="M4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>31.58</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="M5">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>31.58</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="M6">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>31.58</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="M7">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>31.58</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="M8">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>31.58</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="M9">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>31.58</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="M10">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>31.58</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="M11">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>31.58</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="M12">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>21.87</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="M16">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>21.87</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="M17">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>122.01</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M18">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>122.01</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M19">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>122.01</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M20">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>122.01</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M21">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>4</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>122.01</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M22">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="M23">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="M24">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>70</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="M25">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="M26">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="M27">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>4</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>70</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="M28">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>70</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="M29">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="M30">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="M31">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="M32">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>31.95</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="M33">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>31.95</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="M34">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>4</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>31.95</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="M35">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>4</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>31.95</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="M36">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>4</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>31.95</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="M37">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>4</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <v>24.36</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M38">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>24.36</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M39">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40">
+        <v>24.36</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M40">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>28.68</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M41">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>28.68</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M42">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>4</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43">
+        <v>28.68</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M43">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>3</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>4</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44">
+        <v>134.97</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M44">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>4</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45">
+        <v>134.97</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="L45">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M45">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>4</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>134.97</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M46">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>4</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>134.97</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M47">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>4</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48">
+        <v>134.97</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M48">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>4</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49">
+        <v>134.97</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="M49">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>4</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50">
+        <v>134.97</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="M50">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>3</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>4</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51">
+        <v>134.97</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="M51">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>4</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52">
+        <v>134.97</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="M52">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>3</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53">
+        <v>130.61000000000001</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="M53">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54">
+        <v>130.61000000000001</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="M54">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>4</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55">
+        <v>130.61000000000001</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="M55">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56">
+        <v>134.97</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M56">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>3</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
         <v>0</v>
       </c>
     </row>
